--- a/data/trans_orig/Q57-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Habitat-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la autopercepción de felicidad</t>
+          <t>Puntuación media de la autopercepción de felicidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,96</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>7,54</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,5</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>7,89</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,81</t>
+          <t>7,54; 7,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,34</t>
+          <t>7,81; 8,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,75</t>
+          <t>7,26; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,23</t>
+          <t>7,72; 7,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,7</t>
+          <t>7,44; 7,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,18</t>
+          <t>7,8; 7,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>8,14</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,83</t>
+          <t>7,51; 7,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,07</t>
+          <t>8,16; 8,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,56</t>
+          <t>7,32; 7,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,91</t>
+          <t>7,77; 7,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,65</t>
+          <t>7,44; 7,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 7,94</t>
+          <t>8,01; 8,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>8,5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>8,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,52</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,71</t>
+          <t>7,63; 7,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 8,36</t>
+          <t>8,37; 8,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,53</t>
+          <t>7,46; 7,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 7,95</t>
+          <t>7,57; 8,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,59</t>
+          <t>7,56; 7,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 8,13</t>
+          <t>7,74; 8,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,57</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>7,83</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,64; 7,85</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 8,05</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 7,53</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,63; 7,83</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,36; 8,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,46; 7,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,77; 8,34</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,72</t>
+          <t>7,49; 7,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 8,42</t>
+          <t>7,77; 7,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,85</t>
+          <t>7,63; 7,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 8,03</t>
+          <t>8,12; 8,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,53</t>
+          <t>7,39; 7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 7,82</t>
+          <t>7,69; 7,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,65</t>
+          <t>7,52; 7,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 7,89</t>
+          <t>7,93; 8,12</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,14</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,87</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 7,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,07; 8,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 7,51</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 7,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 7,6</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 8,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q57-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Habitat-trans_orig.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,55</t>
+          <t>7,26; 7,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 7,94</t>
+          <t>7,72; 7,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,63</t>
+          <t>7,43; 7,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 7,98</t>
+          <t>7,8; 7,99</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,71</t>
+          <t>7,52; 7,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 8,67</t>
+          <t>8,17; 8,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,53</t>
+          <t>7,3; 7,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,96</t>
+          <t>7,76; 7,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,59</t>
+          <t>7,45; 7,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 8,45</t>
+          <t>8,01; 8,44</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,83</t>
+          <t>7,62; 7,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 8,61</t>
+          <t>8,36; 8,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,17 +814,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 8,32</t>
+          <t>7,52; 8,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,72</t>
+          <t>7,57; 7,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,42</t>
+          <t>7,73; 8,43</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,85</t>
+          <t>7,65; 7,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,53</t>
+          <t>7,3; 7,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,83</t>
+          <t>7,64; 7,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,65</t>
+          <t>7,5; 7,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,92</t>
+          <t>7,76; 7,91</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,38; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 7,93</t>
+          <t>7,7; 7,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,6</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 8,12</t>
+          <t>7,95; 8,13</t>
         </is>
       </c>
     </row>
